--- a/data/raw/Producer_Price_Index_by_Commodity_Processed_Foods_and_Feeds_Chicken_and_Turkey_Feed_Supplements__________Concentrates_and_Premixes_data.xlsx
+++ b/data/raw/Producer_Price_Index_by_Commodity_Processed_Foods_and_Feeds_Chicken_and_Turkey_Feed_Supplements__________Concentrates_and_Premixes_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="446">
   <si>
     <t xml:space="preserve">realtime_start</t>
   </si>
@@ -27,78 +27,6 @@
   </si>
   <si>
     <t xml:space="preserve">2025-02-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.0</t>
   </si>
   <si>
     <t xml:space="preserve">2006-01-01</t>
@@ -1806,7 +1734,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1817,10 +1745,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -1831,10 +1759,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -1845,10 +1773,10 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -1859,10 +1787,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1873,10 +1801,10 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
@@ -1887,10 +1815,10 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -1901,10 +1829,10 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1915,10 +1843,10 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -1929,10 +1857,10 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
@@ -1943,10 +1871,10 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
@@ -1957,10 +1885,10 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
@@ -1971,10 +1899,10 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
@@ -1985,10 +1913,10 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -1999,10 +1927,10 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
@@ -2013,10 +1941,10 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
@@ -2027,10 +1955,10 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
@@ -2041,10 +1969,10 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
         <v>40</v>
-      </c>
-      <c r="D21" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="22">
@@ -2055,10 +1983,10 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
         <v>42</v>
-      </c>
-      <c r="D22" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23">
@@ -2069,10 +1997,10 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
         <v>44</v>
-      </c>
-      <c r="D23" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="24">
@@ -3178,7 +3106,7 @@
         <v>201</v>
       </c>
       <c r="D102" t="s">
-        <v>202</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103">
@@ -3189,10 +3117,10 @@
         <v>4</v>
       </c>
       <c r="C103" t="s">
+        <v>202</v>
+      </c>
+      <c r="D103" t="s">
         <v>203</v>
-      </c>
-      <c r="D103" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="104">
@@ -3203,10 +3131,10 @@
         <v>4</v>
       </c>
       <c r="C104" t="s">
+        <v>204</v>
+      </c>
+      <c r="D104" t="s">
         <v>205</v>
-      </c>
-      <c r="D104" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="105">
@@ -3217,10 +3145,10 @@
         <v>4</v>
       </c>
       <c r="C105" t="s">
+        <v>206</v>
+      </c>
+      <c r="D105" t="s">
         <v>207</v>
-      </c>
-      <c r="D105" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="106">
@@ -3231,10 +3159,10 @@
         <v>4</v>
       </c>
       <c r="C106" t="s">
+        <v>208</v>
+      </c>
+      <c r="D106" t="s">
         <v>209</v>
-      </c>
-      <c r="D106" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="107">
@@ -3245,10 +3173,10 @@
         <v>4</v>
       </c>
       <c r="C107" t="s">
+        <v>210</v>
+      </c>
+      <c r="D107" t="s">
         <v>211</v>
-      </c>
-      <c r="D107" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="108">
@@ -3259,10 +3187,10 @@
         <v>4</v>
       </c>
       <c r="C108" t="s">
+        <v>212</v>
+      </c>
+      <c r="D108" t="s">
         <v>213</v>
-      </c>
-      <c r="D108" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="109">
@@ -3273,10 +3201,10 @@
         <v>4</v>
       </c>
       <c r="C109" t="s">
+        <v>214</v>
+      </c>
+      <c r="D109" t="s">
         <v>215</v>
-      </c>
-      <c r="D109" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="110">
@@ -3287,10 +3215,10 @@
         <v>4</v>
       </c>
       <c r="C110" t="s">
+        <v>216</v>
+      </c>
+      <c r="D110" t="s">
         <v>217</v>
-      </c>
-      <c r="D110" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="111">
@@ -3301,10 +3229,10 @@
         <v>4</v>
       </c>
       <c r="C111" t="s">
+        <v>218</v>
+      </c>
+      <c r="D111" t="s">
         <v>219</v>
-      </c>
-      <c r="D111" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="112">
@@ -3315,10 +3243,10 @@
         <v>4</v>
       </c>
       <c r="C112" t="s">
+        <v>220</v>
+      </c>
+      <c r="D112" t="s">
         <v>221</v>
-      </c>
-      <c r="D112" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="113">
@@ -3329,10 +3257,10 @@
         <v>4</v>
       </c>
       <c r="C113" t="s">
+        <v>222</v>
+      </c>
+      <c r="D113" t="s">
         <v>223</v>
-      </c>
-      <c r="D113" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="114">
@@ -3343,10 +3271,10 @@
         <v>4</v>
       </c>
       <c r="C114" t="s">
+        <v>224</v>
+      </c>
+      <c r="D114" t="s">
         <v>225</v>
-      </c>
-      <c r="D114" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="115">
@@ -3528,7 +3456,7 @@
         <v>250</v>
       </c>
       <c r="D127" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="128">
@@ -3539,10 +3467,10 @@
         <v>4</v>
       </c>
       <c r="C128" t="s">
+        <v>251</v>
+      </c>
+      <c r="D128" t="s">
         <v>252</v>
-      </c>
-      <c r="D128" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="129">
@@ -3553,10 +3481,10 @@
         <v>4</v>
       </c>
       <c r="C129" t="s">
+        <v>253</v>
+      </c>
+      <c r="D129" t="s">
         <v>254</v>
-      </c>
-      <c r="D129" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="130">
@@ -3567,10 +3495,10 @@
         <v>4</v>
       </c>
       <c r="C130" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D130" t="s">
-        <v>257</v>
+        <v>84</v>
       </c>
     </row>
     <row r="131">
@@ -3581,10 +3509,10 @@
         <v>4</v>
       </c>
       <c r="C131" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D131" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="132">
@@ -3595,10 +3523,10 @@
         <v>4</v>
       </c>
       <c r="C132" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D132" t="s">
-        <v>261</v>
+        <v>98</v>
       </c>
     </row>
     <row r="133">
@@ -3609,10 +3537,10 @@
         <v>4</v>
       </c>
       <c r="C133" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D133" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="134">
@@ -3623,10 +3551,10 @@
         <v>4</v>
       </c>
       <c r="C134" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D134" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="135">
@@ -3637,10 +3565,10 @@
         <v>4</v>
       </c>
       <c r="C135" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D135" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="136">
@@ -3651,10 +3579,10 @@
         <v>4</v>
       </c>
       <c r="C136" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D136" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="137">
@@ -3665,10 +3593,10 @@
         <v>4</v>
       </c>
       <c r="C137" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D137" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="138">
@@ -3679,10 +3607,10 @@
         <v>4</v>
       </c>
       <c r="C138" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D138" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="139">
@@ -3693,10 +3621,10 @@
         <v>4</v>
       </c>
       <c r="C139" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D139" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
     </row>
     <row r="140">
@@ -3707,10 +3635,10 @@
         <v>4</v>
       </c>
       <c r="C140" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D140" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
     </row>
     <row r="141">
@@ -3721,10 +3649,10 @@
         <v>4</v>
       </c>
       <c r="C141" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D141" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="142">
@@ -3735,10 +3663,10 @@
         <v>4</v>
       </c>
       <c r="C142" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D142" t="s">
-        <v>108</v>
+        <v>276</v>
       </c>
     </row>
     <row r="143">
@@ -3749,10 +3677,10 @@
         <v>4</v>
       </c>
       <c r="C143" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D143" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="144">
@@ -3763,10 +3691,10 @@
         <v>4</v>
       </c>
       <c r="C144" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D144" t="s">
-        <v>122</v>
+        <v>280</v>
       </c>
     </row>
     <row r="145">
@@ -3777,10 +3705,10 @@
         <v>4</v>
       </c>
       <c r="C145" t="s">
+        <v>281</v>
+      </c>
+      <c r="D145" t="s">
         <v>282</v>
-      </c>
-      <c r="D145" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="146">
@@ -3791,10 +3719,10 @@
         <v>4</v>
       </c>
       <c r="C146" t="s">
+        <v>283</v>
+      </c>
+      <c r="D146" t="s">
         <v>284</v>
-      </c>
-      <c r="D146" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="147">
@@ -3805,10 +3733,10 @@
         <v>4</v>
       </c>
       <c r="C147" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D147" t="s">
-        <v>287</v>
+        <v>88</v>
       </c>
     </row>
     <row r="148">
@@ -3819,10 +3747,10 @@
         <v>4</v>
       </c>
       <c r="C148" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D148" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="149">
@@ -3833,10 +3761,10 @@
         <v>4</v>
       </c>
       <c r="C149" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D149" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="150">
@@ -3847,10 +3775,10 @@
         <v>4</v>
       </c>
       <c r="C150" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D150" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="151">
@@ -3861,10 +3789,10 @@
         <v>4</v>
       </c>
       <c r="C151" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D151" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="152">
@@ -3875,10 +3803,10 @@
         <v>4</v>
       </c>
       <c r="C152" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D152" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="153">
@@ -3889,10 +3817,10 @@
         <v>4</v>
       </c>
       <c r="C153" t="s">
+        <v>296</v>
+      </c>
+      <c r="D153" t="s">
         <v>297</v>
-      </c>
-      <c r="D153" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="154">
@@ -3903,10 +3831,10 @@
         <v>4</v>
       </c>
       <c r="C154" t="s">
+        <v>298</v>
+      </c>
+      <c r="D154" t="s">
         <v>299</v>
-      </c>
-      <c r="D154" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="155">
@@ -3917,10 +3845,10 @@
         <v>4</v>
       </c>
       <c r="C155" t="s">
+        <v>300</v>
+      </c>
+      <c r="D155" t="s">
         <v>301</v>
-      </c>
-      <c r="D155" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="156">
@@ -3931,10 +3859,10 @@
         <v>4</v>
       </c>
       <c r="C156" t="s">
+        <v>302</v>
+      </c>
+      <c r="D156" t="s">
         <v>303</v>
-      </c>
-      <c r="D156" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="157">
@@ -3945,10 +3873,10 @@
         <v>4</v>
       </c>
       <c r="C157" t="s">
+        <v>304</v>
+      </c>
+      <c r="D157" t="s">
         <v>305</v>
-      </c>
-      <c r="D157" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="158">
@@ -3959,10 +3887,10 @@
         <v>4</v>
       </c>
       <c r="C158" t="s">
+        <v>306</v>
+      </c>
+      <c r="D158" t="s">
         <v>307</v>
-      </c>
-      <c r="D158" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="159">
@@ -3973,10 +3901,10 @@
         <v>4</v>
       </c>
       <c r="C159" t="s">
+        <v>308</v>
+      </c>
+      <c r="D159" t="s">
         <v>309</v>
-      </c>
-      <c r="D159" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="160">
@@ -3990,7 +3918,7 @@
         <v>310</v>
       </c>
       <c r="D160" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="161">
@@ -4001,10 +3929,10 @@
         <v>4</v>
       </c>
       <c r="C161" t="s">
+        <v>311</v>
+      </c>
+      <c r="D161" t="s">
         <v>312</v>
-      </c>
-      <c r="D161" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="162">
@@ -4015,10 +3943,10 @@
         <v>4</v>
       </c>
       <c r="C162" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D162" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="163">
@@ -4029,10 +3957,10 @@
         <v>4</v>
       </c>
       <c r="C163" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D163" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="164">
@@ -4043,10 +3971,10 @@
         <v>4</v>
       </c>
       <c r="C164" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D164" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="165">
@@ -4057,10 +3985,10 @@
         <v>4</v>
       </c>
       <c r="C165" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D165" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="166">
@@ -4071,10 +3999,10 @@
         <v>4</v>
       </c>
       <c r="C166" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D166" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="167">
@@ -4085,10 +4013,10 @@
         <v>4</v>
       </c>
       <c r="C167" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D167" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="168">
@@ -4099,10 +4027,10 @@
         <v>4</v>
       </c>
       <c r="C168" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D168" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="169">
@@ -4113,10 +4041,10 @@
         <v>4</v>
       </c>
       <c r="C169" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D169" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="170">
@@ -4127,10 +4055,10 @@
         <v>4</v>
       </c>
       <c r="C170" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D170" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="171">
@@ -4141,10 +4069,10 @@
         <v>4</v>
       </c>
       <c r="C171" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D171" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="172">
@@ -4155,10 +4083,10 @@
         <v>4</v>
       </c>
       <c r="C172" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D172" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="173">
@@ -4169,10 +4097,10 @@
         <v>4</v>
       </c>
       <c r="C173" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D173" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="174">
@@ -4183,10 +4111,10 @@
         <v>4</v>
       </c>
       <c r="C174" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D174" t="s">
-        <v>336</v>
+        <v>267</v>
       </c>
     </row>
     <row r="175">
@@ -4197,10 +4125,10 @@
         <v>4</v>
       </c>
       <c r="C175" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D175" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="176">
@@ -4211,10 +4139,10 @@
         <v>4</v>
       </c>
       <c r="C176" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D176" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="177">
@@ -4225,10 +4153,10 @@
         <v>4</v>
       </c>
       <c r="C177" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D177" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="178">
@@ -4239,10 +4167,10 @@
         <v>4</v>
       </c>
       <c r="C178" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D178" t="s">
-        <v>345</v>
+        <v>245</v>
       </c>
     </row>
     <row r="179">
@@ -4253,10 +4181,10 @@
         <v>4</v>
       </c>
       <c r="C179" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D179" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="180">
@@ -4267,10 +4195,10 @@
         <v>4</v>
       </c>
       <c r="C180" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D180" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="181">
@@ -4281,10 +4209,10 @@
         <v>4</v>
       </c>
       <c r="C181" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D181" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="182">
@@ -4295,10 +4223,10 @@
         <v>4</v>
       </c>
       <c r="C182" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D182" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
     </row>
     <row r="183">
@@ -4309,10 +4237,10 @@
         <v>4</v>
       </c>
       <c r="C183" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D183" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="184">
@@ -4323,10 +4251,10 @@
         <v>4</v>
       </c>
       <c r="C184" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D184" t="s">
-        <v>356</v>
+        <v>128</v>
       </c>
     </row>
     <row r="185">
@@ -4337,10 +4265,10 @@
         <v>4</v>
       </c>
       <c r="C185" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D185" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="186">
@@ -4351,10 +4279,10 @@
         <v>4</v>
       </c>
       <c r="C186" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D186" t="s">
-        <v>291</v>
+        <v>357</v>
       </c>
     </row>
     <row r="187">
@@ -4365,10 +4293,10 @@
         <v>4</v>
       </c>
       <c r="C187" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D187" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="188">
@@ -4379,10 +4307,10 @@
         <v>4</v>
       </c>
       <c r="C188" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D188" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="189">
@@ -4393,10 +4321,10 @@
         <v>4</v>
       </c>
       <c r="C189" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D189" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="190">
@@ -4407,10 +4335,10 @@
         <v>4</v>
       </c>
       <c r="C190" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D190" t="s">
-        <v>269</v>
+        <v>365</v>
       </c>
     </row>
     <row r="191">
@@ -4421,10 +4349,10 @@
         <v>4</v>
       </c>
       <c r="C191" t="s">
+        <v>366</v>
+      </c>
+      <c r="D191" t="s">
         <v>367</v>
-      </c>
-      <c r="D191" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="192">
@@ -4435,10 +4363,10 @@
         <v>4</v>
       </c>
       <c r="C192" t="s">
+        <v>368</v>
+      </c>
+      <c r="D192" t="s">
         <v>369</v>
-      </c>
-      <c r="D192" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="193">
@@ -4449,10 +4377,10 @@
         <v>4</v>
       </c>
       <c r="C193" t="s">
+        <v>370</v>
+      </c>
+      <c r="D193" t="s">
         <v>371</v>
-      </c>
-      <c r="D193" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="194">
@@ -4463,10 +4391,10 @@
         <v>4</v>
       </c>
       <c r="C194" t="s">
+        <v>372</v>
+      </c>
+      <c r="D194" t="s">
         <v>373</v>
-      </c>
-      <c r="D194" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="195">
@@ -4477,10 +4405,10 @@
         <v>4</v>
       </c>
       <c r="C195" t="s">
+        <v>374</v>
+      </c>
+      <c r="D195" t="s">
         <v>375</v>
-      </c>
-      <c r="D195" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="196">
@@ -4491,10 +4419,10 @@
         <v>4</v>
       </c>
       <c r="C196" t="s">
+        <v>376</v>
+      </c>
+      <c r="D196" t="s">
         <v>377</v>
-      </c>
-      <c r="D196" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="197">
@@ -4971,174 +4899,6 @@
       </c>
       <c r="D230" t="s">
         <v>445</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="s">
-        <v>4</v>
-      </c>
-      <c r="B231" t="s">
-        <v>4</v>
-      </c>
-      <c r="C231" t="s">
-        <v>446</v>
-      </c>
-      <c r="D231" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="s">
-        <v>4</v>
-      </c>
-      <c r="B232" t="s">
-        <v>4</v>
-      </c>
-      <c r="C232" t="s">
-        <v>448</v>
-      </c>
-      <c r="D232" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="s">
-        <v>4</v>
-      </c>
-      <c r="B233" t="s">
-        <v>4</v>
-      </c>
-      <c r="C233" t="s">
-        <v>450</v>
-      </c>
-      <c r="D233" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="s">
-        <v>4</v>
-      </c>
-      <c r="B234" t="s">
-        <v>4</v>
-      </c>
-      <c r="C234" t="s">
-        <v>452</v>
-      </c>
-      <c r="D234" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="s">
-        <v>4</v>
-      </c>
-      <c r="B235" t="s">
-        <v>4</v>
-      </c>
-      <c r="C235" t="s">
-        <v>454</v>
-      </c>
-      <c r="D235" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="s">
-        <v>4</v>
-      </c>
-      <c r="B236" t="s">
-        <v>4</v>
-      </c>
-      <c r="C236" t="s">
-        <v>456</v>
-      </c>
-      <c r="D236" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="s">
-        <v>4</v>
-      </c>
-      <c r="B237" t="s">
-        <v>4</v>
-      </c>
-      <c r="C237" t="s">
-        <v>458</v>
-      </c>
-      <c r="D237" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="s">
-        <v>4</v>
-      </c>
-      <c r="B238" t="s">
-        <v>4</v>
-      </c>
-      <c r="C238" t="s">
-        <v>460</v>
-      </c>
-      <c r="D238" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="s">
-        <v>4</v>
-      </c>
-      <c r="B239" t="s">
-        <v>4</v>
-      </c>
-      <c r="C239" t="s">
-        <v>462</v>
-      </c>
-      <c r="D239" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="s">
-        <v>4</v>
-      </c>
-      <c r="B240" t="s">
-        <v>4</v>
-      </c>
-      <c r="C240" t="s">
-        <v>464</v>
-      </c>
-      <c r="D240" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="s">
-        <v>4</v>
-      </c>
-      <c r="B241" t="s">
-        <v>4</v>
-      </c>
-      <c r="C241" t="s">
-        <v>466</v>
-      </c>
-      <c r="D241" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="s">
-        <v>4</v>
-      </c>
-      <c r="B242" t="s">
-        <v>4</v>
-      </c>
-      <c r="C242" t="s">
-        <v>468</v>
-      </c>
-      <c r="D242" t="s">
-        <v>469</v>
       </c>
     </row>
   </sheetData>
